--- a/medicine/Enfance/Anne_quitte_son_île/Anne_quitte_son_île.xlsx
+++ b/medicine/Enfance/Anne_quitte_son_île/Anne_quitte_son_île.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anne_quitte_son_%C3%AEle</t>
+          <t>Anne_quitte_son_île</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Anne quitte son île (titre original : Anne of the Island) est un roman écrit en 1915 par l'autrice canadienne Lucy Maud Montgomery.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anne_quitte_son_%C3%AEle</t>
+          <t>Anne_quitte_son_île</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anne_quitte_son_%C3%AEle</t>
+          <t>Anne_quitte_son_île</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,6 +553,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -546,7 +562,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anne_quitte_son_%C3%AEle</t>
+          <t>Anne_quitte_son_île</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -564,7 +580,9 @@
           <t>Cycle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1908 : Anne… la maison aux pignons verts (Anne of Green Gables)
 1909 : Anne d'Avonlea (Anne of Avonlea)
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Anne_quitte_son_%C3%AEle</t>
+          <t>Anne_quitte_son_île</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,8 +621,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Téléfilm
-1987 : Anne... la maison aux pignons verts : La Suite (Anne of Green Gables: The Sequel) (Le Bonheur au bout du chemin 2 en France)
+          <t>Téléfilm</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1987 : Anne... la maison aux pignons verts : La Suite (Anne of Green Gables: The Sequel) (Le Bonheur au bout du chemin 2 en France)
 2019 : Anne with an e (série Netflix)</t>
         </is>
       </c>
